--- a/ORG_DEPARMENT.xlsx
+++ b/ORG_DEPARMENT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8C1A41-5231-427D-BD52-C6061364CDED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA72034-9861-48BC-A6CD-40F600333AB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="158">
   <si>
     <t>ORG_DEPAR_PK</t>
   </si>
@@ -485,6 +485,15 @@
   </si>
   <si>
     <t>ทสส.ทอ.</t>
+  </si>
+  <si>
+    <t>ORG_DEPAR_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_DEPAR_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_DEPAR_STATUS</t>
   </si>
 </sst>
 </file>
@@ -805,20 +814,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" customWidth="1"/>
-    <col min="2" max="3" width="44.36328125" customWidth="1"/>
-    <col min="4" max="11" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="11" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,8 +837,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>26001</v>
       </c>
@@ -840,7 +858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>26002</v>
       </c>
@@ -851,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>26003</v>
       </c>
@@ -862,7 +880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>26004</v>
       </c>
@@ -873,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>26005</v>
       </c>
@@ -884,7 +902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>26006</v>
       </c>
@@ -895,7 +913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>26007</v>
       </c>
@@ -906,7 +924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>26008</v>
       </c>
@@ -917,7 +935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>26009</v>
       </c>
@@ -928,7 +946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>26010</v>
       </c>
@@ -939,7 +957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>26011</v>
       </c>
@@ -950,7 +968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>26012</v>
       </c>
@@ -961,7 +979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>26013</v>
       </c>
@@ -972,7 +990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>26014</v>
       </c>
@@ -983,7 +1001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>26015</v>
       </c>
@@ -994,7 +1012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>26016</v>
       </c>
@@ -1005,7 +1023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>26017</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>26018</v>
       </c>
@@ -1027,7 +1045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>26019</v>
       </c>
@@ -1038,7 +1056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>26020</v>
       </c>
@@ -1049,7 +1067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>26021</v>
       </c>
@@ -1060,7 +1078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>26022</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>26023</v>
       </c>
@@ -1082,7 +1100,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>26024</v>
       </c>
@@ -1093,7 +1111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26025</v>
       </c>
@@ -1104,7 +1122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26026</v>
       </c>
@@ -1115,7 +1133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26027</v>
       </c>
@@ -1126,7 +1144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26028</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26029</v>
       </c>
@@ -1148,7 +1166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>26030</v>
       </c>
@@ -1159,7 +1177,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>26031</v>
       </c>
@@ -1170,7 +1188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>26032</v>
       </c>
@@ -1181,7 +1199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>26033</v>
       </c>
@@ -1192,7 +1210,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>26034</v>
       </c>
@@ -1203,7 +1221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>26035</v>
       </c>
@@ -1214,7 +1232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>26036</v>
       </c>
@@ -1225,7 +1243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>26037</v>
       </c>
@@ -1236,7 +1254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>26038</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>26039</v>
       </c>
@@ -1258,7 +1276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>26040</v>
       </c>
@@ -1269,7 +1287,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>26041</v>
       </c>
@@ -1280,7 +1298,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>26042</v>
       </c>
@@ -1291,7 +1309,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>26043</v>
       </c>
@@ -1302,7 +1320,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>26044</v>
       </c>
@@ -1313,7 +1331,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>26045</v>
       </c>
@@ -1324,7 +1342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>26046</v>
       </c>
@@ -1335,7 +1353,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>26047</v>
       </c>
@@ -1346,7 +1364,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>26048</v>
       </c>
@@ -1357,7 +1375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>26049</v>
       </c>
@@ -1368,7 +1386,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>26050</v>
       </c>
@@ -1379,7 +1397,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>26051</v>
       </c>
@@ -1390,7 +1408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>26052</v>
       </c>
@@ -1401,7 +1419,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>26053</v>
       </c>
@@ -1412,7 +1430,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>26054</v>
       </c>
@@ -1423,7 +1441,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>26055</v>
       </c>
@@ -1434,7 +1452,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>26056</v>
       </c>
@@ -1445,7 +1463,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>26057</v>
       </c>
@@ -1456,7 +1474,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>26058</v>
       </c>
@@ -1467,7 +1485,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>26059</v>
       </c>
@@ -1478,7 +1496,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>26060</v>
       </c>
@@ -1489,7 +1507,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26061</v>
       </c>
@@ -1500,7 +1518,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>26062</v>
       </c>
@@ -1511,7 +1529,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>26063</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>26064</v>
       </c>
@@ -1533,7 +1551,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>26065</v>
       </c>
@@ -1544,7 +1562,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>26066</v>
       </c>
@@ -1555,7 +1573,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>26067</v>
       </c>
@@ -1566,7 +1584,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>26068</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>26069</v>
       </c>
@@ -1588,7 +1606,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>26070</v>
       </c>
@@ -1599,7 +1617,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>26071</v>
       </c>
@@ -1610,7 +1628,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>26072</v>
       </c>
@@ -1621,7 +1639,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>26073</v>
       </c>
@@ -1632,7 +1650,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>26074</v>
       </c>
@@ -1643,7 +1661,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>26075</v>
       </c>
@@ -1654,7 +1672,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>26076</v>
       </c>
@@ -1665,7 +1683,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>26077</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>26078</v>
       </c>
@@ -1687,7 +1705,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>26079</v>
       </c>
@@ -1698,7 +1716,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>26080</v>
       </c>
@@ -1709,7 +1727,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>26081</v>
       </c>
